--- a/library_testfile.xlsx
+++ b/library_testfile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sliwimag\PycharmProjects\bug-DL-81\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaszeluk\Documents\projekty\melvil-inkubator\melvil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45713FE-8663-4C87-AF5D-0B4097CF3CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13896" windowHeight="9036" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Lp.</t>
   </si>
@@ -195,12 +196,15 @@
   </si>
   <si>
     <t>magazines:</t>
+  </si>
+  <si>
+    <t>Pan Testtest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,10 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,24 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -598,8 +603,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -613,7 +624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -627,7 +638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -641,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -655,7 +666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -669,7 +680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -682,8 +693,9 @@
       <c r="D8">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -699,43 +711,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="The Lion, the Witch and the Wardrobe" display="https://en.wikipedia.org/wiki/The_Lion,_the_Witch_and_the_Wardrobe"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="C. S. Lewis" display="https://en.wikipedia.org/wiki/C._S._Lewis"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="She: A History of Adventure" display="https://en.wikipedia.org/wiki/She:_A_History_of_Adventure"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="H. Rider Haggard" display="https://en.wikipedia.org/wiki/H._Rider_Haggard"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="The Adventures of Pinocchio" display="https://en.wikipedia.org/wiki/The_Adventures_of_Pinocchio"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="Carlo Collodi" display="https://en.wikipedia.org/wiki/Carlo_Collodi"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="Vardi Wala Gunda (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vardi_Wala_Gunda&amp;action=edit&amp;redlink=1"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="Ved Prakash Sharma" display="https://en.wikipedia.org/wiki/Ved_Prakash_Sharma"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="The Da Vinci Code" display="https://en.wikipedia.org/wiki/The_Da_Vinci_Code"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="Dan Brown" display="https://en.wikipedia.org/wiki/Dan_Brown"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets"/>
-    <hyperlink ref="C7" r:id="rId12" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets"/>
-    <hyperlink ref="C8" r:id="rId14" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling"/>
-    <hyperlink ref="B9" r:id="rId15" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets"/>
-    <hyperlink ref="C9" r:id="rId16" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="The Lion, the Witch and the Wardrobe" display="https://en.wikipedia.org/wiki/The_Lion,_the_Witch_and_the_Wardrobe" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="C. S. Lewis" display="https://en.wikipedia.org/wiki/C._S._Lewis" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="She: A History of Adventure" display="https://en.wikipedia.org/wiki/She:_A_History_of_Adventure" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="H. Rider Haggard" display="https://en.wikipedia.org/wiki/H._Rider_Haggard" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="The Adventures of Pinocchio" display="https://en.wikipedia.org/wiki/The_Adventures_of_Pinocchio" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="Carlo Collodi" display="https://en.wikipedia.org/wiki/Carlo_Collodi" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="Vardi Wala Gunda (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vardi_Wala_Gunda&amp;action=edit&amp;redlink=1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="Ved Prakash Sharma" display="https://en.wikipedia.org/wiki/Ved_Prakash_Sharma" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="The Da Vinci Code" display="https://en.wikipedia.org/wiki/The_Da_Vinci_Code" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="Dan Brown" display="https://en.wikipedia.org/wiki/Dan_Brown" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C7" r:id="rId12" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C8" r:id="rId14" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" tooltip="Harry Potter and the Chamber of Secrets" display="https://en.wikipedia.org/wiki/Harry_Potter_and_the_Chamber_of_Secrets" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C9" r:id="rId16" tooltip="J. K. Rowling" display="https://en.wikipedia.org/wiki/J._K._Rowling" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +762,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -763,7 +783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -777,7 +797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -790,8 +810,14 @@
       <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -805,7 +831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -821,35 +847,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="The Tale of Peter Rabbit" display="https://en.wikipedia.org/wiki/The_Tale_of_Peter_Rabbit"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="Beatrix Potter" display="https://en.wikipedia.org/wiki/Beatrix_Potter"/>
-    <hyperlink ref="B3" r:id="rId3" tooltip="The Odyssey" display="https://en.wikipedia.org/wiki/The_Odyssey"/>
-    <hyperlink ref="C3" r:id="rId4" tooltip="Homer" display="https://en.wikipedia.org/wiki/Homer"/>
-    <hyperlink ref="B4" r:id="rId5" tooltip="Jonathan Livingston Seagull" display="https://en.wikipedia.org/wiki/Jonathan_Livingston_Seagull"/>
-    <hyperlink ref="C4" r:id="rId6" tooltip="Richard Bach" display="https://en.wikipedia.org/wiki/Richard_Bach"/>
-    <hyperlink ref="B5" r:id="rId7" tooltip="The Very Hungry Caterpillar" display="https://en.wikipedia.org/wiki/The_Very_Hungry_Caterpillar"/>
-    <hyperlink ref="C5" r:id="rId8" tooltip="Eric Carle" display="https://en.wikipedia.org/wiki/Eric_Carle"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="A Message to Garcia" display="https://en.wikipedia.org/wiki/A_Message_to_Garcia"/>
-    <hyperlink ref="C6" r:id="rId10" tooltip="Elbert Hubbard" display="https://en.wikipedia.org/wiki/Elbert_Hubbard"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="The Tale of Peter Rabbit" display="https://en.wikipedia.org/wiki/The_Tale_of_Peter_Rabbit" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="Beatrix Potter" display="https://en.wikipedia.org/wiki/Beatrix_Potter" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" tooltip="The Odyssey" display="https://en.wikipedia.org/wiki/The_Odyssey" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" tooltip="Homer" display="https://en.wikipedia.org/wiki/Homer" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" tooltip="Jonathan Livingston Seagull" display="https://en.wikipedia.org/wiki/Jonathan_Livingston_Seagull" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" tooltip="Richard Bach" display="https://en.wikipedia.org/wiki/Richard_Bach" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" tooltip="The Very Hungry Caterpillar" display="https://en.wikipedia.org/wiki/The_Very_Hungry_Caterpillar" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" tooltip="Eric Carle" display="https://en.wikipedia.org/wiki/Eric_Carle" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" tooltip="A Message to Garcia" display="https://en.wikipedia.org/wiki/A_Message_to_Garcia" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C6" r:id="rId10" tooltip="Elbert Hubbard" display="https://en.wikipedia.org/wiki/Elbert_Hubbard" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -859,8 +887,14 @@
       <c r="D1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -888,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -902,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -916,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -932,27 +966,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes"/>
-    <hyperlink ref="B3" r:id="rId2" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes"/>
-    <hyperlink ref="B5" r:id="rId4" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes"/>
-    <hyperlink ref="B6" r:id="rId5" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Forbes" display="https://en.wikipedia.org/wiki/Forbes" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -960,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -968,7 +1002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -976,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
